--- a/hw8/Yaohw8/hw8 data version 2.xlsx
+++ b/hw8/Yaohw8/hw8 data version 2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="11340" windowHeight="3240" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="11340" windowHeight="3240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="raw cities" sheetId="1" r:id="rId1"/>
@@ -1640,7 +1640,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1663,6 +1663,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1688,10 +1695,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -1730,8 +1741,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3374,11 +3387,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CH73"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="BW4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="AL4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4:D23"/>
+      <selection pane="bottomRight" activeCell="BI4" sqref="BI4:BI23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4128,35 +4141,35 @@
         <v>0</v>
       </c>
       <c r="AD4" s="9">
-        <f>SUM(H4:N4)</f>
+        <f t="shared" ref="AD4:AD23" si="0">SUM(H4:N4)</f>
         <v>43714</v>
       </c>
       <c r="AE4" s="9">
-        <f>SUM(S4:Y4)</f>
+        <f t="shared" ref="AE4:AE23" si="1">SUM(S4:Y4)</f>
         <v>34462</v>
       </c>
       <c r="AF4" s="9">
-        <f>SUM(L4:R4)</f>
+        <f t="shared" ref="AF4:AF23" si="2">SUM(L4:R4)</f>
         <v>40771</v>
       </c>
       <c r="AG4" s="9">
-        <f>SUM(W4:AC4)</f>
+        <f t="shared" ref="AG4:AG23" si="3">SUM(W4:AC4)</f>
         <v>31192</v>
       </c>
       <c r="AH4" s="15">
-        <f>$E4-AD4</f>
+        <f t="shared" ref="AH4:AH23" si="4">$E4-AD4</f>
         <v>77060</v>
       </c>
       <c r="AI4" s="15">
-        <f>$E4-AE4</f>
+        <f t="shared" ref="AI4:AI23" si="5">$E4-AE4</f>
         <v>86312</v>
       </c>
       <c r="AJ4" s="15">
-        <f>$E4-AF4</f>
+        <f t="shared" ref="AJ4:AJ23" si="6">$E4-AF4</f>
         <v>80003</v>
       </c>
       <c r="AK4" s="15">
-        <f>$E4-AG4</f>
+        <f t="shared" ref="AK4:AK23" si="7">$E4-AG4</f>
         <v>89582</v>
       </c>
       <c r="AL4" s="9">
@@ -4190,19 +4203,19 @@
         <v>136.4</v>
       </c>
       <c r="AV4" s="6">
-        <f>AH4/$AU4*100</f>
+        <f t="shared" ref="AV4:AV23" si="8">AH4/$AU4*100</f>
         <v>56495.601173020521</v>
       </c>
       <c r="AW4" s="6">
-        <f>AI4/$AU4*100</f>
+        <f t="shared" ref="AW4:AW23" si="9">AI4/$AU4*100</f>
         <v>63278.592375366563</v>
       </c>
       <c r="AX4" s="6">
-        <f>AJ4/$AU4*100</f>
+        <f t="shared" ref="AX4:AX23" si="10">AJ4/$AU4*100</f>
         <v>58653.225806451606</v>
       </c>
       <c r="AY4" s="6">
-        <f>AK4/$AU4*100</f>
+        <f t="shared" ref="AY4:AY23" si="11">AK4/$AU4*100</f>
         <v>65675.953079178886</v>
       </c>
       <c r="AZ4" s="2">
@@ -4239,35 +4252,35 @@
         <v>61</v>
       </c>
       <c r="BK4" s="4">
-        <f>AV4/(2087+$BJ4/60*262.5)*2087</f>
+        <f t="shared" ref="BK4:BK23" si="12">AV4/(2087+$BJ4/60*262.5)*2087</f>
         <v>50090.306260142883</v>
       </c>
       <c r="BL4" s="4">
-        <f>AW4/(2087+$BJ4/60*262.5)*2087</f>
+        <f t="shared" ref="BL4:BL23" si="13">AW4/(2087+$BJ4/60*262.5)*2087</f>
         <v>56104.263092725829</v>
       </c>
       <c r="BM4" s="4">
-        <f>AX4/(2087+$BJ4/60*262.5)*2087</f>
+        <f t="shared" ref="BM4:BM23" si="14">AX4/(2087+$BJ4/60*262.5)*2087</f>
         <v>52003.306147550109</v>
       </c>
       <c r="BN4" s="4">
-        <f>AY4/(2087+$BJ4/60*262.5)*2087</f>
+        <f t="shared" ref="BN4:BN23" si="15">AY4/(2087+$BJ4/60*262.5)*2087</f>
         <v>58229.818523178306</v>
       </c>
       <c r="BO4" s="13">
-        <f>BK4-$BG4*12</f>
+        <f t="shared" ref="BO4:BO23" si="16">BK4-$BG4*12</f>
         <v>20522.306260142883</v>
       </c>
       <c r="BP4" s="13">
-        <f>BL4-$BG4*12</f>
+        <f t="shared" ref="BP4:BP23" si="17">BL4-$BG4*12</f>
         <v>26536.263092725829</v>
       </c>
       <c r="BQ4" s="13">
-        <f>BM4-$BG4*12</f>
+        <f t="shared" ref="BQ4:BQ23" si="18">BM4-$BG4*12</f>
         <v>22435.306147550109</v>
       </c>
       <c r="BR4" s="13">
-        <f>BN4-$BG4*12</f>
+        <f t="shared" ref="BR4:BR23" si="19">BN4-$BG4*12</f>
         <v>28661.818523178306</v>
       </c>
       <c r="BS4" s="2">
@@ -4403,35 +4416,35 @@
         <v>0</v>
       </c>
       <c r="AD5" s="9">
-        <f>SUM(H5:N5)</f>
+        <f t="shared" si="0"/>
         <v>40578</v>
       </c>
       <c r="AE5" s="9">
-        <f>SUM(S5:Y5)</f>
+        <f t="shared" si="1"/>
         <v>31386</v>
       </c>
       <c r="AF5" s="9">
-        <f>SUM(L5:R5)</f>
+        <f t="shared" si="2"/>
         <v>37727</v>
       </c>
       <c r="AG5" s="9">
-        <f>SUM(W5:AC5)</f>
+        <f t="shared" si="3"/>
         <v>28341</v>
       </c>
       <c r="AH5" s="15">
-        <f>$E5-AD5</f>
+        <f t="shared" si="4"/>
         <v>73658</v>
       </c>
       <c r="AI5" s="15">
-        <f>$E5-AE5</f>
+        <f t="shared" si="5"/>
         <v>82850</v>
       </c>
       <c r="AJ5" s="15">
-        <f>$E5-AF5</f>
+        <f t="shared" si="6"/>
         <v>76509</v>
       </c>
       <c r="AK5" s="15">
-        <f>$E5-AG5</f>
+        <f t="shared" si="7"/>
         <v>85895</v>
       </c>
       <c r="AL5" s="9">
@@ -4465,19 +4478,19 @@
         <v>132.30000000000001</v>
       </c>
       <c r="AV5" s="6">
-        <f>AH5/$AU5*100</f>
+        <f t="shared" si="8"/>
         <v>55674.98110355252</v>
       </c>
       <c r="AW5" s="6">
-        <f>AI5/$AU5*100</f>
+        <f t="shared" si="9"/>
         <v>62622.826908541188</v>
       </c>
       <c r="AX5" s="6">
-        <f>AJ5/$AU5*100</f>
+        <f t="shared" si="10"/>
         <v>57829.931972789112</v>
       </c>
       <c r="AY5" s="6">
-        <f>AK5/$AU5*100</f>
+        <f t="shared" si="11"/>
         <v>64924.414210128489</v>
       </c>
       <c r="AZ5" s="2">
@@ -4514,35 +4527,35 @@
         <v>47</v>
       </c>
       <c r="BK5" s="4">
-        <f>AV5/(2087+$BJ5/60*262.5)*2087</f>
+        <f t="shared" si="12"/>
         <v>50681.5050708747</v>
       </c>
       <c r="BL5" s="4">
-        <f>AW5/(2087+$BJ5/60*262.5)*2087</f>
+        <f t="shared" si="13"/>
         <v>57006.200210730261</v>
       </c>
       <c r="BM5" s="4">
-        <f>AX5/(2087+$BJ5/60*262.5)*2087</f>
+        <f t="shared" si="14"/>
         <v>52643.178900697181</v>
       </c>
       <c r="BN5" s="4">
-        <f>AY5/(2087+$BJ5/60*262.5)*2087</f>
+        <f t="shared" si="15"/>
         <v>59101.358685584491</v>
       </c>
       <c r="BO5" s="13">
-        <f>BK5-$BG5*12</f>
+        <f t="shared" si="16"/>
         <v>22721.5050708747</v>
       </c>
       <c r="BP5" s="13">
-        <f>BL5-$BG5*12</f>
+        <f t="shared" si="17"/>
         <v>29046.200210730261</v>
       </c>
       <c r="BQ5" s="13">
-        <f>BM5-$BG5*12</f>
+        <f t="shared" si="18"/>
         <v>24683.178900697181</v>
       </c>
       <c r="BR5" s="13">
-        <f>BN5-$BG5*12</f>
+        <f t="shared" si="19"/>
         <v>31141.358685584491</v>
       </c>
       <c r="BS5" s="2">
@@ -4678,35 +4691,35 @@
         <v>0</v>
       </c>
       <c r="AD6" s="9">
-        <f>SUM(H6:N6)</f>
+        <f t="shared" si="0"/>
         <v>52043</v>
       </c>
       <c r="AE6" s="9">
-        <f>SUM(S6:Y6)</f>
+        <f t="shared" si="1"/>
         <v>42597</v>
       </c>
       <c r="AF6" s="9">
-        <f>SUM(L6:R6)</f>
+        <f t="shared" si="2"/>
         <v>48868</v>
       </c>
       <c r="AG6" s="9">
-        <f>SUM(W6:AC6)</f>
+        <f t="shared" si="3"/>
         <v>38741</v>
       </c>
       <c r="AH6" s="15">
-        <f>$E6-AD6</f>
+        <f t="shared" si="4"/>
         <v>90686</v>
       </c>
       <c r="AI6" s="15">
-        <f>$E6-AE6</f>
+        <f t="shared" si="5"/>
         <v>100132</v>
       </c>
       <c r="AJ6" s="15">
-        <f>$E6-AF6</f>
+        <f t="shared" si="6"/>
         <v>93861</v>
       </c>
       <c r="AK6" s="15">
-        <f>$E6-AG6</f>
+        <f t="shared" si="7"/>
         <v>103988</v>
       </c>
       <c r="AL6" s="9">
@@ -4740,19 +4753,19 @@
         <v>164</v>
       </c>
       <c r="AV6" s="6">
-        <f>AH6/$AU6*100</f>
+        <f t="shared" si="8"/>
         <v>55296.341463414639</v>
       </c>
       <c r="AW6" s="6">
-        <f>AI6/$AU6*100</f>
+        <f t="shared" si="9"/>
         <v>61056.097560975606</v>
       </c>
       <c r="AX6" s="6">
-        <f>AJ6/$AU6*100</f>
+        <f t="shared" si="10"/>
         <v>57232.317073170736</v>
       </c>
       <c r="AY6" s="6">
-        <f>AK6/$AU6*100</f>
+        <f t="shared" si="11"/>
         <v>63407.317073170736</v>
       </c>
       <c r="AZ6" s="2">
@@ -4789,35 +4802,35 @@
         <v>64.8</v>
       </c>
       <c r="BK6" s="4">
-        <f>AV6/(2087+$BJ6/60*262.5)*2087</f>
+        <f t="shared" si="12"/>
         <v>48683.174281436979</v>
       </c>
       <c r="BL6" s="4">
-        <f>AW6/(2087+$BJ6/60*262.5)*2087</f>
+        <f t="shared" si="13"/>
         <v>53754.092220947517</v>
       </c>
       <c r="BM6" s="4">
-        <f>AX6/(2087+$BJ6/60*262.5)*2087</f>
+        <f t="shared" si="14"/>
         <v>50387.616845267803</v>
       </c>
       <c r="BN6" s="4">
-        <f>AY6/(2087+$BJ6/60*262.5)*2087</f>
+        <f t="shared" si="15"/>
         <v>55824.117583508676</v>
       </c>
       <c r="BO6" s="13">
-        <f>BK6-$BG6*12</f>
+        <f t="shared" si="16"/>
         <v>10079.174281436979</v>
       </c>
       <c r="BP6" s="13">
-        <f>BL6-$BG6*12</f>
+        <f t="shared" si="17"/>
         <v>15150.092220947517</v>
       </c>
       <c r="BQ6" s="13">
-        <f>BM6-$BG6*12</f>
+        <f t="shared" si="18"/>
         <v>11783.616845267803</v>
       </c>
       <c r="BR6" s="13">
-        <f>BN6-$BG6*12</f>
+        <f t="shared" si="19"/>
         <v>17220.117583508676</v>
       </c>
       <c r="BS6" s="2">
@@ -4953,35 +4966,35 @@
         <v>0</v>
       </c>
       <c r="AD7" s="9">
-        <f>SUM(H7:N7)</f>
+        <f t="shared" si="0"/>
         <v>51892</v>
       </c>
       <c r="AE7" s="9">
-        <f>SUM(S7:Y7)</f>
+        <f t="shared" si="1"/>
         <v>42575</v>
       </c>
       <c r="AF7" s="9">
-        <f>SUM(L7:R7)</f>
+        <f t="shared" si="2"/>
         <v>48738</v>
       </c>
       <c r="AG7" s="9">
-        <f>SUM(W7:AC7)</f>
+        <f t="shared" si="3"/>
         <v>38763</v>
       </c>
       <c r="AH7" s="15">
-        <f>$E7-AD7</f>
+        <f t="shared" si="4"/>
         <v>89425</v>
       </c>
       <c r="AI7" s="15">
-        <f>$E7-AE7</f>
+        <f t="shared" si="5"/>
         <v>98742</v>
       </c>
       <c r="AJ7" s="15">
-        <f>$E7-AF7</f>
+        <f t="shared" si="6"/>
         <v>92579</v>
       </c>
       <c r="AK7" s="15">
-        <f>$E7-AG7</f>
+        <f t="shared" si="7"/>
         <v>102554</v>
       </c>
       <c r="AL7" s="9">
@@ -5015,19 +5028,19 @@
         <v>156.1</v>
       </c>
       <c r="AV7" s="6">
-        <f>AH7/$AU7*100</f>
+        <f t="shared" si="8"/>
         <v>57286.995515695075</v>
       </c>
       <c r="AW7" s="6">
-        <f>AI7/$AU7*100</f>
+        <f t="shared" si="9"/>
         <v>63255.605381165922</v>
       </c>
       <c r="AX7" s="6">
-        <f>AJ7/$AU7*100</f>
+        <f t="shared" si="10"/>
         <v>59307.495195387572</v>
       </c>
       <c r="AY7" s="6">
-        <f>AK7/$AU7*100</f>
+        <f t="shared" si="11"/>
         <v>65697.629724535553</v>
       </c>
       <c r="AZ7" s="2">
@@ -5064,35 +5077,35 @@
         <v>57</v>
       </c>
       <c r="BK7" s="4">
-        <f>AV7/(2087+$BJ7/60*262.5)*2087</f>
+        <f t="shared" si="12"/>
         <v>51172.418657645125</v>
       </c>
       <c r="BL7" s="4">
-        <f>AW7/(2087+$BJ7/60*262.5)*2087</f>
+        <f t="shared" si="13"/>
         <v>56503.963803110921</v>
       </c>
       <c r="BM7" s="4">
-        <f>AX7/(2087+$BJ7/60*262.5)*2087</f>
+        <f t="shared" si="14"/>
         <v>52977.258561991919</v>
       </c>
       <c r="BN7" s="4">
-        <f>AY7/(2087+$BJ7/60*262.5)*2087</f>
+        <f t="shared" si="15"/>
         <v>58685.336572727276</v>
       </c>
       <c r="BO7" s="13">
-        <f>BK7-$BG7*12</f>
+        <f t="shared" si="16"/>
         <v>17860.418657645125</v>
       </c>
       <c r="BP7" s="13">
-        <f>BL7-$BG7*12</f>
+        <f t="shared" si="17"/>
         <v>23191.963803110921</v>
       </c>
       <c r="BQ7" s="13">
-        <f>BM7-$BG7*12</f>
+        <f t="shared" si="18"/>
         <v>19665.258561991919</v>
       </c>
       <c r="BR7" s="13">
-        <f>BN7-$BG7*12</f>
+        <f t="shared" si="19"/>
         <v>25373.336572727276</v>
       </c>
       <c r="BS7" s="2">
@@ -5222,35 +5235,35 @@
         <v>0</v>
       </c>
       <c r="AD8" s="9">
-        <f>SUM(H8:N8)</f>
+        <f t="shared" si="0"/>
         <v>32642</v>
       </c>
       <c r="AE8" s="9">
-        <f>SUM(S8:Y8)</f>
+        <f t="shared" si="1"/>
         <v>26281</v>
       </c>
       <c r="AF8" s="9">
-        <f>SUM(L8:R8)</f>
+        <f t="shared" si="2"/>
         <v>29961</v>
       </c>
       <c r="AG8" s="9">
-        <f>SUM(W8:AC8)</f>
+        <f t="shared" si="3"/>
         <v>24216</v>
       </c>
       <c r="AH8" s="15">
-        <f>$E8-AD8</f>
+        <f t="shared" si="4"/>
         <v>67579</v>
       </c>
       <c r="AI8" s="15">
-        <f>$E8-AE8</f>
+        <f t="shared" si="5"/>
         <v>73940</v>
       </c>
       <c r="AJ8" s="15">
-        <f>$E8-AF8</f>
+        <f t="shared" si="6"/>
         <v>70260</v>
       </c>
       <c r="AK8" s="15">
-        <f>$E8-AG8</f>
+        <f t="shared" si="7"/>
         <v>76005</v>
       </c>
       <c r="AL8" s="9">
@@ -5284,19 +5297,19 @@
         <v>103.2</v>
       </c>
       <c r="AV8" s="6">
-        <f>AH8/$AU8*100</f>
+        <f t="shared" si="8"/>
         <v>65483.527131782947</v>
       </c>
       <c r="AW8" s="6">
-        <f>AI8/$AU8*100</f>
+        <f t="shared" si="9"/>
         <v>71647.28682170542</v>
       </c>
       <c r="AX8" s="6">
-        <f>AJ8/$AU8*100</f>
+        <f t="shared" si="10"/>
         <v>68081.395348837206</v>
       </c>
       <c r="AY8" s="6">
-        <f>AK8/$AU8*100</f>
+        <f t="shared" si="11"/>
         <v>73648.255813953481</v>
       </c>
       <c r="AZ8" s="2">
@@ -5333,35 +5346,35 @@
         <v>50.2</v>
       </c>
       <c r="BK8" s="4">
-        <f>AV8/(2087+$BJ8/60*262.5)*2087</f>
+        <f t="shared" si="12"/>
         <v>59248.52159498445</v>
       </c>
       <c r="BL8" s="4">
-        <f>AW8/(2087+$BJ8/60*262.5)*2087</f>
+        <f t="shared" si="13"/>
         <v>64825.399706020362</v>
       </c>
       <c r="BM8" s="4">
-        <f>AX8/(2087+$BJ8/60*262.5)*2087</f>
+        <f t="shared" si="14"/>
         <v>61599.034126927108</v>
       </c>
       <c r="BN8" s="4">
-        <f>AY8/(2087+$BJ8/60*262.5)*2087</f>
+        <f t="shared" si="15"/>
         <v>66635.846695375672</v>
       </c>
       <c r="BO8" s="13">
-        <f>BK8-$BG8*12</f>
+        <f t="shared" si="16"/>
         <v>40252.52159498445</v>
       </c>
       <c r="BP8" s="13">
-        <f>BL8-$BG8*12</f>
+        <f t="shared" si="17"/>
         <v>45829.399706020362</v>
       </c>
       <c r="BQ8" s="13">
-        <f>BM8-$BG8*12</f>
+        <f t="shared" si="18"/>
         <v>42603.034126927108</v>
       </c>
       <c r="BR8" s="13">
-        <f>BN8-$BG8*12</f>
+        <f t="shared" si="19"/>
         <v>47639.846695375672</v>
       </c>
       <c r="BS8" s="2">
@@ -5497,35 +5510,35 @@
         <v>0</v>
       </c>
       <c r="AD9" s="9">
-        <f>SUM(H9:N9)</f>
+        <f t="shared" si="0"/>
         <v>38368</v>
       </c>
       <c r="AE9" s="9">
-        <f>SUM(S9:Y9)</f>
+        <f t="shared" si="1"/>
         <v>31426</v>
       </c>
       <c r="AF9" s="9">
-        <f>SUM(L9:R9)</f>
+        <f t="shared" si="2"/>
         <v>35627</v>
       </c>
       <c r="AG9" s="9">
-        <f>SUM(W9:AC9)</f>
+        <f t="shared" si="3"/>
         <v>28862</v>
       </c>
       <c r="AH9" s="15">
-        <f>$E9-AD9</f>
+        <f t="shared" si="4"/>
         <v>66765</v>
       </c>
       <c r="AI9" s="15">
-        <f>$E9-AE9</f>
+        <f t="shared" si="5"/>
         <v>73707</v>
       </c>
       <c r="AJ9" s="15">
-        <f>$E9-AF9</f>
+        <f t="shared" si="6"/>
         <v>69506</v>
       </c>
       <c r="AK9" s="15">
-        <f>$E9-AG9</f>
+        <f t="shared" si="7"/>
         <v>76271</v>
       </c>
       <c r="AL9" s="9">
@@ -5559,19 +5572,19 @@
         <v>121.8</v>
       </c>
       <c r="AV9" s="6">
-        <f>AH9/$AU9*100</f>
+        <f t="shared" si="8"/>
         <v>54815.270935960594</v>
       </c>
       <c r="AW9" s="6">
-        <f>AI9/$AU9*100</f>
+        <f t="shared" si="9"/>
         <v>60514.778325123152</v>
       </c>
       <c r="AX9" s="6">
-        <f>AJ9/$AU9*100</f>
+        <f t="shared" si="10"/>
         <v>57065.681444991787</v>
       </c>
       <c r="AY9" s="6">
-        <f>AK9/$AU9*100</f>
+        <f t="shared" si="11"/>
         <v>62619.868637110019</v>
       </c>
       <c r="AZ9" s="2">
@@ -5608,35 +5621,35 @@
         <v>45.8</v>
       </c>
       <c r="BK9" s="4">
-        <f>AV9/(2087+$BJ9/60*262.5)*2087</f>
+        <f t="shared" si="12"/>
         <v>50013.430435914423</v>
       </c>
       <c r="BL9" s="4">
-        <f>AW9/(2087+$BJ9/60*262.5)*2087</f>
+        <f t="shared" si="13"/>
         <v>55213.658610648461</v>
       </c>
       <c r="BM9" s="4">
-        <f>AX9/(2087+$BJ9/60*262.5)*2087</f>
+        <f t="shared" si="14"/>
         <v>52066.704049706699</v>
       </c>
       <c r="BN9" s="4">
-        <f>AY9/(2087+$BJ9/60*262.5)*2087</f>
+        <f t="shared" si="15"/>
         <v>57134.342137012347</v>
       </c>
       <c r="BO9" s="13">
-        <f>BK9-$BG9*12</f>
+        <f t="shared" si="16"/>
         <v>31437.430435914423</v>
       </c>
       <c r="BP9" s="13">
-        <f>BL9-$BG9*12</f>
+        <f t="shared" si="17"/>
         <v>36637.658610648461</v>
       </c>
       <c r="BQ9" s="13">
-        <f>BM9-$BG9*12</f>
+        <f t="shared" si="18"/>
         <v>33490.704049706699</v>
       </c>
       <c r="BR9" s="13">
-        <f>BN9-$BG9*12</f>
+        <f t="shared" si="19"/>
         <v>38558.342137012347</v>
       </c>
       <c r="BS9" s="2">
@@ -5772,35 +5785,35 @@
         <v>0</v>
       </c>
       <c r="AD10" s="9">
-        <f>SUM(H10:N10)</f>
+        <f t="shared" si="0"/>
         <v>35574</v>
       </c>
       <c r="AE10" s="9">
-        <f>SUM(S10:Y10)</f>
+        <f t="shared" si="1"/>
         <v>28536</v>
       </c>
       <c r="AF10" s="9">
-        <f>SUM(L10:R10)</f>
+        <f t="shared" si="2"/>
         <v>32797</v>
       </c>
       <c r="AG10" s="9">
-        <f>SUM(W10:AC10)</f>
+        <f t="shared" si="3"/>
         <v>25865</v>
       </c>
       <c r="AH10" s="15">
-        <f>$E10-AD10</f>
+        <f t="shared" si="4"/>
         <v>70039</v>
       </c>
       <c r="AI10" s="15">
-        <f>$E10-AE10</f>
+        <f t="shared" si="5"/>
         <v>77077</v>
       </c>
       <c r="AJ10" s="15">
-        <f>$E10-AF10</f>
+        <f t="shared" si="6"/>
         <v>72816</v>
       </c>
       <c r="AK10" s="15">
-        <f>$E10-AG10</f>
+        <f t="shared" si="7"/>
         <v>79748</v>
       </c>
       <c r="AL10" s="9">
@@ -5834,19 +5847,19 @@
         <v>140.1</v>
       </c>
       <c r="AV10" s="6">
-        <f>AH10/$AU10*100</f>
+        <f t="shared" si="8"/>
         <v>49992.14846538187</v>
       </c>
       <c r="AW10" s="6">
-        <f>AI10/$AU10*100</f>
+        <f t="shared" si="9"/>
         <v>55015.70306923626</v>
       </c>
       <c r="AX10" s="6">
-        <f>AJ10/$AU10*100</f>
+        <f t="shared" si="10"/>
         <v>51974.304068522484</v>
       </c>
       <c r="AY10" s="6">
-        <f>AK10/$AU10*100</f>
+        <f t="shared" si="11"/>
         <v>56922.198429693082</v>
       </c>
       <c r="AZ10" s="2">
@@ -5883,35 +5896,35 @@
         <v>59.8</v>
       </c>
       <c r="BK10" s="4">
-        <f>AV10/(2087+$BJ10/60*262.5)*2087</f>
+        <f t="shared" si="12"/>
         <v>44423.274829848087</v>
       </c>
       <c r="BL10" s="4">
-        <f>AW10/(2087+$BJ10/60*262.5)*2087</f>
+        <f t="shared" si="13"/>
         <v>48887.230743731365</v>
       </c>
       <c r="BM10" s="4">
-        <f>AX10/(2087+$BJ10/60*262.5)*2087</f>
+        <f t="shared" si="14"/>
         <v>46184.628278676428</v>
       </c>
       <c r="BN10" s="4">
-        <f>AY10/(2087+$BJ10/60*262.5)*2087</f>
+        <f t="shared" si="15"/>
         <v>50581.3521199721</v>
       </c>
       <c r="BO10" s="13">
-        <f>BK10-$BG10*12</f>
+        <f t="shared" si="16"/>
         <v>16391.274829848087</v>
       </c>
       <c r="BP10" s="13">
-        <f>BL10-$BG10*12</f>
+        <f t="shared" si="17"/>
         <v>20855.230743731365</v>
       </c>
       <c r="BQ10" s="13">
-        <f>BM10-$BG10*12</f>
+        <f t="shared" si="18"/>
         <v>18152.628278676428</v>
       </c>
       <c r="BR10" s="13">
-        <f>BN10-$BG10*12</f>
+        <f t="shared" si="19"/>
         <v>22549.3521199721</v>
       </c>
       <c r="BS10" s="2">
@@ -6047,35 +6060,35 @@
         <v>0</v>
       </c>
       <c r="AD11" s="9">
-        <f>SUM(H11:N11)</f>
+        <f t="shared" si="0"/>
         <v>27968</v>
       </c>
       <c r="AE11" s="9">
-        <f>SUM(S11:Y11)</f>
+        <f t="shared" si="1"/>
         <v>22069</v>
       </c>
       <c r="AF11" s="9">
-        <f>SUM(L11:R11)</f>
+        <f t="shared" si="2"/>
         <v>25386</v>
       </c>
       <c r="AG11" s="9">
-        <f>SUM(W11:AC11)</f>
+        <f t="shared" si="3"/>
         <v>20118</v>
       </c>
       <c r="AH11" s="15">
-        <f>$E11-AD11</f>
+        <f t="shared" si="4"/>
         <v>68440</v>
       </c>
       <c r="AI11" s="15">
-        <f>$E11-AE11</f>
+        <f t="shared" si="5"/>
         <v>74339</v>
       </c>
       <c r="AJ11" s="15">
-        <f>$E11-AF11</f>
+        <f t="shared" si="6"/>
         <v>71022</v>
       </c>
       <c r="AK11" s="15">
-        <f>$E11-AG11</f>
+        <f t="shared" si="7"/>
         <v>76290</v>
       </c>
       <c r="AL11" s="9">
@@ -6109,19 +6122,19 @@
         <v>92.4</v>
       </c>
       <c r="AV11" s="6">
-        <f>AH11/$AU11*100</f>
+        <f t="shared" si="8"/>
         <v>74069.264069264071</v>
       </c>
       <c r="AW11" s="6">
-        <f>AI11/$AU11*100</f>
+        <f t="shared" si="9"/>
         <v>80453.463203463194</v>
       </c>
       <c r="AX11" s="6">
-        <f>AJ11/$AU11*100</f>
+        <f t="shared" si="10"/>
         <v>76863.636363636368</v>
       </c>
       <c r="AY11" s="6">
-        <f>AK11/$AU11*100</f>
+        <f t="shared" si="11"/>
         <v>82564.935064935053</v>
       </c>
       <c r="AZ11" s="2">
@@ -6158,35 +6171,35 @@
         <v>47.2</v>
       </c>
       <c r="BK11" s="4">
-        <f>AV11/(2087+$BJ11/60*262.5)*2087</f>
+        <f t="shared" si="12"/>
         <v>67400.285202770479</v>
       </c>
       <c r="BL11" s="4">
-        <f>AW11/(2087+$BJ11/60*262.5)*2087</f>
+        <f t="shared" si="13"/>
         <v>73209.669808427163</v>
       </c>
       <c r="BM11" s="4">
-        <f>AX11/(2087+$BJ11/60*262.5)*2087</f>
+        <f t="shared" si="14"/>
         <v>69943.060427690914</v>
       </c>
       <c r="BN11" s="4">
-        <f>AY11/(2087+$BJ11/60*262.5)*2087</f>
+        <f t="shared" si="15"/>
         <v>75131.030948558735</v>
       </c>
       <c r="BO11" s="13">
-        <f>BK11-$BG11*12</f>
+        <f t="shared" si="16"/>
         <v>49580.285202770479</v>
       </c>
       <c r="BP11" s="13">
-        <f>BL11-$BG11*12</f>
+        <f t="shared" si="17"/>
         <v>55389.669808427163</v>
       </c>
       <c r="BQ11" s="13">
-        <f>BM11-$BG11*12</f>
+        <f t="shared" si="18"/>
         <v>52123.060427690914</v>
       </c>
       <c r="BR11" s="13">
-        <f>BN11-$BG11*12</f>
+        <f t="shared" si="19"/>
         <v>57311.030948558735</v>
       </c>
       <c r="BS11" s="2">
@@ -6322,35 +6335,35 @@
         <v>0</v>
       </c>
       <c r="AD12" s="9">
-        <f>SUM(H12:N12)</f>
+        <f t="shared" si="0"/>
         <v>34252</v>
       </c>
       <c r="AE12" s="9">
-        <f>SUM(S12:Y12)</f>
+        <f t="shared" si="1"/>
         <v>27865</v>
       </c>
       <c r="AF12" s="9">
-        <f>SUM(L12:R12)</f>
+        <f t="shared" si="2"/>
         <v>31569</v>
       </c>
       <c r="AG12" s="9">
-        <f>SUM(W12:AC12)</f>
+        <f t="shared" si="3"/>
         <v>25806</v>
       </c>
       <c r="AH12" s="15">
-        <f>$E12-AD12</f>
+        <f t="shared" si="4"/>
         <v>65428</v>
       </c>
       <c r="AI12" s="15">
-        <f>$E12-AE12</f>
+        <f t="shared" si="5"/>
         <v>71815</v>
       </c>
       <c r="AJ12" s="15">
-        <f>$E12-AF12</f>
+        <f t="shared" si="6"/>
         <v>68111</v>
       </c>
       <c r="AK12" s="15">
-        <f>$E12-AG12</f>
+        <f t="shared" si="7"/>
         <v>73874</v>
       </c>
       <c r="AL12" s="9">
@@ -6384,19 +6397,19 @@
         <v>95.6</v>
       </c>
       <c r="AV12" s="6">
-        <f>AH12/$AU12*100</f>
+        <f t="shared" si="8"/>
         <v>68439.330543933058</v>
       </c>
       <c r="AW12" s="6">
-        <f>AI12/$AU12*100</f>
+        <f t="shared" si="9"/>
         <v>75120.292887029296</v>
       </c>
       <c r="AX12" s="6">
-        <f>AJ12/$AU12*100</f>
+        <f t="shared" si="10"/>
         <v>71245.81589958159</v>
       </c>
       <c r="AY12" s="6">
-        <f>AK12/$AU12*100</f>
+        <f t="shared" si="11"/>
         <v>77274.058577405871</v>
       </c>
       <c r="AZ12" s="2">
@@ -6433,35 +6446,35 @@
         <v>51.6</v>
       </c>
       <c r="BK12" s="4">
-        <f>AV12/(2087+$BJ12/60*262.5)*2087</f>
+        <f t="shared" si="12"/>
         <v>61758.894322857333</v>
       </c>
       <c r="BL12" s="4">
-        <f>AW12/(2087+$BJ12/60*262.5)*2087</f>
+        <f t="shared" si="13"/>
         <v>67787.720789203391</v>
       </c>
       <c r="BM12" s="4">
-        <f>AX12/(2087+$BJ12/60*262.5)*2087</f>
+        <f t="shared" si="14"/>
         <v>64291.435642601566</v>
       </c>
       <c r="BN12" s="4">
-        <f>AY12/(2087+$BJ12/60*262.5)*2087</f>
+        <f t="shared" si="15"/>
         <v>69731.255108008234</v>
       </c>
       <c r="BO12" s="13">
-        <f>BK12-$BG12*12</f>
+        <f t="shared" si="16"/>
         <v>40830.894322857333</v>
       </c>
       <c r="BP12" s="13">
-        <f>BL12-$BG12*12</f>
+        <f t="shared" si="17"/>
         <v>46859.720789203391</v>
       </c>
       <c r="BQ12" s="13">
-        <f>BM12-$BG12*12</f>
+        <f t="shared" si="18"/>
         <v>43363.435642601566</v>
       </c>
       <c r="BR12" s="13">
-        <f>BN12-$BG12*12</f>
+        <f t="shared" si="19"/>
         <v>48803.255108008234</v>
       </c>
       <c r="BS12" s="2">
@@ -6597,35 +6610,35 @@
         <v>0</v>
       </c>
       <c r="AD13" s="9">
-        <f>SUM(H13:N13)</f>
+        <f t="shared" si="0"/>
         <v>38217</v>
       </c>
       <c r="AE13" s="9">
-        <f>SUM(S13:Y13)</f>
+        <f t="shared" si="1"/>
         <v>31624</v>
       </c>
       <c r="AF13" s="9">
-        <f>SUM(L13:R13)</f>
+        <f t="shared" si="2"/>
         <v>35499</v>
       </c>
       <c r="AG13" s="9">
-        <f>SUM(W13:AC13)</f>
+        <f t="shared" si="3"/>
         <v>29251</v>
       </c>
       <c r="AH13" s="15">
-        <f>$E13-AD13</f>
+        <f t="shared" si="4"/>
         <v>65468</v>
       </c>
       <c r="AI13" s="15">
-        <f>$E13-AE13</f>
+        <f t="shared" si="5"/>
         <v>72061</v>
       </c>
       <c r="AJ13" s="15">
-        <f>$E13-AF13</f>
+        <f t="shared" si="6"/>
         <v>68186</v>
       </c>
       <c r="AK13" s="15">
-        <f>$E13-AG13</f>
+        <f t="shared" si="7"/>
         <v>74434</v>
       </c>
       <c r="AL13" s="9">
@@ -6659,19 +6672,19 @@
         <v>116.9</v>
       </c>
       <c r="AV13" s="6">
-        <f>AH13/$AU13*100</f>
+        <f t="shared" si="8"/>
         <v>56003.421727972622</v>
       </c>
       <c r="AW13" s="6">
-        <f>AI13/$AU13*100</f>
+        <f t="shared" si="9"/>
         <v>61643.284858853716</v>
       </c>
       <c r="AX13" s="6">
-        <f>AJ13/$AU13*100</f>
+        <f t="shared" si="10"/>
         <v>58328.485885372109</v>
       </c>
       <c r="AY13" s="6">
-        <f>AK13/$AU13*100</f>
+        <f t="shared" si="11"/>
         <v>63673.224978614198</v>
       </c>
       <c r="AZ13" s="2">
@@ -6708,35 +6721,35 @@
         <v>68.8</v>
       </c>
       <c r="BK13" s="4">
-        <f>AV13/(2087+$BJ13/60*262.5)*2087</f>
+        <f t="shared" si="12"/>
         <v>48944.363964103373</v>
       </c>
       <c r="BL13" s="4">
-        <f>AW13/(2087+$BJ13/60*262.5)*2087</f>
+        <f t="shared" si="13"/>
         <v>53873.339824299706</v>
       </c>
       <c r="BM13" s="4">
-        <f>AX13/(2087+$BJ13/60*262.5)*2087</f>
+        <f t="shared" si="14"/>
         <v>50976.360989435336</v>
       </c>
       <c r="BN13" s="4">
-        <f>AY13/(2087+$BJ13/60*262.5)*2087</f>
+        <f t="shared" si="15"/>
         <v>55647.412282398589</v>
       </c>
       <c r="BO13" s="13">
-        <f>BK13-$BG13*12</f>
+        <f t="shared" si="16"/>
         <v>26780.363964103373</v>
       </c>
       <c r="BP13" s="13">
-        <f>BL13-$BG13*12</f>
+        <f t="shared" si="17"/>
         <v>31709.339824299706</v>
       </c>
       <c r="BQ13" s="13">
-        <f>BM13-$BG13*12</f>
+        <f t="shared" si="18"/>
         <v>28812.360989435336</v>
       </c>
       <c r="BR13" s="13">
-        <f>BN13-$BG13*12</f>
+        <f t="shared" si="19"/>
         <v>33483.412282398589</v>
       </c>
       <c r="BS13" s="2">
@@ -6872,35 +6885,35 @@
         <v>0</v>
       </c>
       <c r="AD14" s="9">
-        <f>SUM(H14:N14)</f>
+        <f t="shared" si="0"/>
         <v>37824</v>
       </c>
       <c r="AE14" s="9">
-        <f>SUM(S14:Y14)</f>
+        <f t="shared" si="1"/>
         <v>30842</v>
       </c>
       <c r="AF14" s="9">
-        <f>SUM(L14:R14)</f>
+        <f t="shared" si="2"/>
         <v>34861</v>
       </c>
       <c r="AG14" s="9">
-        <f>SUM(W14:AC14)</f>
+        <f t="shared" si="3"/>
         <v>27930</v>
       </c>
       <c r="AH14" s="15">
-        <f>$E14-AD14</f>
+        <f t="shared" si="4"/>
         <v>74644</v>
       </c>
       <c r="AI14" s="15">
-        <f>$E14-AE14</f>
+        <f t="shared" si="5"/>
         <v>81626</v>
       </c>
       <c r="AJ14" s="15">
-        <f>$E14-AF14</f>
+        <f t="shared" si="6"/>
         <v>77607</v>
       </c>
       <c r="AK14" s="15">
-        <f>$E14-AG14</f>
+        <f t="shared" si="7"/>
         <v>84538</v>
       </c>
       <c r="AL14" s="9">
@@ -6934,19 +6947,19 @@
         <v>132.5</v>
       </c>
       <c r="AV14" s="6">
-        <f>AH14/$AU14*100</f>
+        <f t="shared" si="8"/>
         <v>56335.094339622643</v>
       </c>
       <c r="AW14" s="6">
-        <f>AI14/$AU14*100</f>
+        <f t="shared" si="9"/>
         <v>61604.528301886799</v>
       </c>
       <c r="AX14" s="6">
-        <f>AJ14/$AU14*100</f>
+        <f t="shared" si="10"/>
         <v>58571.320754716973</v>
       </c>
       <c r="AY14" s="6">
-        <f>AK14/$AU14*100</f>
+        <f t="shared" si="11"/>
         <v>63802.264150943389</v>
       </c>
       <c r="AZ14" s="2">
@@ -6983,35 +6996,35 @@
         <v>60.6</v>
       </c>
       <c r="BK14" s="4">
-        <f>AV14/(2087+$BJ14/60*262.5)*2087</f>
+        <f t="shared" si="12"/>
         <v>49985.15890388158</v>
       </c>
       <c r="BL14" s="4">
-        <f>AW14/(2087+$BJ14/60*262.5)*2087</f>
+        <f t="shared" si="13"/>
         <v>54660.636898990379</v>
       </c>
       <c r="BM14" s="4">
-        <f>AX14/(2087+$BJ14/60*262.5)*2087</f>
+        <f t="shared" si="14"/>
         <v>51969.324085707318</v>
       </c>
       <c r="BN14" s="4">
-        <f>AY14/(2087+$BJ14/60*262.5)*2087</f>
+        <f t="shared" si="15"/>
         <v>56610.650064524147</v>
       </c>
       <c r="BO14" s="13">
-        <f>BK14-$BG14*12</f>
+        <f t="shared" si="16"/>
         <v>23069.15890388158</v>
       </c>
       <c r="BP14" s="13">
-        <f>BL14-$BG14*12</f>
+        <f t="shared" si="17"/>
         <v>27744.636898990379</v>
       </c>
       <c r="BQ14" s="13">
-        <f>BM14-$BG14*12</f>
+        <f t="shared" si="18"/>
         <v>25053.324085707318</v>
       </c>
       <c r="BR14" s="13">
-        <f>BN14-$BG14*12</f>
+        <f t="shared" si="19"/>
         <v>29694.650064524147</v>
       </c>
       <c r="BS14" s="2">
@@ -7147,35 +7160,35 @@
         <v>1046</v>
       </c>
       <c r="AD15" s="9">
-        <f>SUM(H15:N15)</f>
+        <f t="shared" si="0"/>
         <v>36885</v>
       </c>
       <c r="AE15" s="9">
-        <f>SUM(S15:Y15)</f>
+        <f t="shared" si="1"/>
         <v>29606</v>
       </c>
       <c r="AF15" s="9">
-        <f>SUM(L15:R15)</f>
+        <f t="shared" si="2"/>
         <v>34145</v>
       </c>
       <c r="AG15" s="9">
-        <f>SUM(W15:AC15)</f>
+        <f t="shared" si="3"/>
         <v>27171</v>
       </c>
       <c r="AH15" s="15">
-        <f>$E15-AD15</f>
+        <f t="shared" si="4"/>
         <v>67738</v>
       </c>
       <c r="AI15" s="15">
-        <f>$E15-AE15</f>
+        <f t="shared" si="5"/>
         <v>75017</v>
       </c>
       <c r="AJ15" s="15">
-        <f>$E15-AF15</f>
+        <f t="shared" si="6"/>
         <v>70478</v>
       </c>
       <c r="AK15" s="15">
-        <f>$E15-AG15</f>
+        <f t="shared" si="7"/>
         <v>77452</v>
       </c>
       <c r="AL15" s="9">
@@ -7209,19 +7222,19 @@
         <v>90.4</v>
       </c>
       <c r="AV15" s="6">
-        <f>AH15/$AU15*100</f>
+        <f t="shared" si="8"/>
         <v>74931.415929203533</v>
       </c>
       <c r="AW15" s="6">
-        <f>AI15/$AU15*100</f>
+        <f t="shared" si="9"/>
         <v>82983.407079646015</v>
       </c>
       <c r="AX15" s="6">
-        <f>AJ15/$AU15*100</f>
+        <f t="shared" si="10"/>
         <v>77962.389380530964</v>
       </c>
       <c r="AY15" s="6">
-        <f>AK15/$AU15*100</f>
+        <f t="shared" si="11"/>
         <v>85676.991150442467</v>
       </c>
       <c r="AZ15" s="2">
@@ -7258,35 +7271,35 @@
         <v>48.2</v>
       </c>
       <c r="BK15" s="4">
-        <f>AV15/(2087+$BJ15/60*262.5)*2087</f>
+        <f t="shared" si="12"/>
         <v>68054.992131533596</v>
       </c>
       <c r="BL15" s="4">
-        <f>AW15/(2087+$BJ15/60*262.5)*2087</f>
+        <f t="shared" si="13"/>
         <v>75368.055518782014</v>
       </c>
       <c r="BM15" s="4">
-        <f>AX15/(2087+$BJ15/60*262.5)*2087</f>
+        <f t="shared" si="14"/>
         <v>70807.814453426807</v>
       </c>
       <c r="BN15" s="4">
-        <f>AY15/(2087+$BJ15/60*262.5)*2087</f>
+        <f t="shared" si="15"/>
         <v>77814.450538420686</v>
       </c>
       <c r="BO15" s="13">
-        <f>BK15-$BG15*12</f>
+        <f t="shared" si="16"/>
         <v>53678.992131533596</v>
       </c>
       <c r="BP15" s="13">
-        <f>BL15-$BG15*12</f>
+        <f t="shared" si="17"/>
         <v>60992.055518782014</v>
       </c>
       <c r="BQ15" s="13">
-        <f>BM15-$BG15*12</f>
+        <f t="shared" si="18"/>
         <v>56431.814453426807</v>
       </c>
       <c r="BR15" s="13">
-        <f>BN15-$BG15*12</f>
+        <f t="shared" si="19"/>
         <v>63438.450538420686</v>
       </c>
       <c r="BS15" s="2">
@@ -7422,35 +7435,35 @@
         <v>0</v>
       </c>
       <c r="AD16" s="9">
-        <f>SUM(H16:N16)</f>
+        <f t="shared" si="0"/>
         <v>32408</v>
       </c>
       <c r="AE16" s="9">
-        <f>SUM(S16:Y16)</f>
+        <f t="shared" si="1"/>
         <v>25928</v>
       </c>
       <c r="AF16" s="9">
-        <f>SUM(L16:R16)</f>
+        <f t="shared" si="2"/>
         <v>29777</v>
       </c>
       <c r="AG16" s="9">
-        <f>SUM(W16:AC16)</f>
+        <f t="shared" si="3"/>
         <v>23920</v>
       </c>
       <c r="AH16" s="15">
-        <f>$E16-AD16</f>
+        <f t="shared" si="4"/>
         <v>65323</v>
       </c>
       <c r="AI16" s="15">
-        <f>$E16-AE16</f>
+        <f t="shared" si="5"/>
         <v>71803</v>
       </c>
       <c r="AJ16" s="15">
-        <f>$E16-AF16</f>
+        <f t="shared" si="6"/>
         <v>67954</v>
       </c>
       <c r="AK16" s="15">
-        <f>$E16-AG16</f>
+        <f t="shared" si="7"/>
         <v>73811</v>
       </c>
       <c r="AL16" s="9">
@@ -7484,19 +7497,19 @@
         <v>98.2</v>
       </c>
       <c r="AV16" s="6">
-        <f>AH16/$AU16*100</f>
+        <f t="shared" si="8"/>
         <v>66520.366598777997</v>
       </c>
       <c r="AW16" s="6">
-        <f>AI16/$AU16*100</f>
+        <f t="shared" si="9"/>
         <v>73119.144602851331</v>
       </c>
       <c r="AX16" s="6">
-        <f>AJ16/$AU16*100</f>
+        <f t="shared" si="10"/>
         <v>69199.59266802443</v>
       </c>
       <c r="AY16" s="6">
-        <f>AK16/$AU16*100</f>
+        <f t="shared" si="11"/>
         <v>75163.951120162921</v>
       </c>
       <c r="AZ16" s="2">
@@ -7533,35 +7546,35 @@
         <v>45.4</v>
       </c>
       <c r="BK16" s="4">
-        <f>AV16/(2087+$BJ16/60*262.5)*2087</f>
+        <f t="shared" si="12"/>
         <v>60739.624869193191</v>
       </c>
       <c r="BL16" s="4">
-        <f>AW16/(2087+$BJ16/60*262.5)*2087</f>
+        <f t="shared" si="13"/>
         <v>66764.956975072782</v>
       </c>
       <c r="BM16" s="4">
-        <f>AX16/(2087+$BJ16/60*262.5)*2087</f>
+        <f t="shared" si="14"/>
         <v>63186.02128440448</v>
       </c>
       <c r="BN16" s="4">
-        <f>AY16/(2087+$BJ16/60*262.5)*2087</f>
+        <f t="shared" si="15"/>
         <v>68632.066059734221</v>
       </c>
       <c r="BO16" s="13">
-        <f>BK16-$BG16*12</f>
+        <f t="shared" si="16"/>
         <v>43555.624869193191</v>
       </c>
       <c r="BP16" s="13">
-        <f>BL16-$BG16*12</f>
+        <f t="shared" si="17"/>
         <v>49580.956975072782</v>
       </c>
       <c r="BQ16" s="13">
-        <f>BM16-$BG16*12</f>
+        <f t="shared" si="18"/>
         <v>46002.02128440448</v>
       </c>
       <c r="BR16" s="13">
-        <f>BN16-$BG16*12</f>
+        <f t="shared" si="19"/>
         <v>51448.066059734221</v>
       </c>
       <c r="BS16" s="2">
@@ -7697,35 +7710,35 @@
         <v>3320</v>
       </c>
       <c r="AD17" s="9">
-        <f>SUM(H17:N17)</f>
+        <f t="shared" si="0"/>
         <v>44448</v>
       </c>
       <c r="AE17" s="9">
-        <f>SUM(S17:Y17)</f>
+        <f t="shared" si="1"/>
         <v>37306</v>
       </c>
       <c r="AF17" s="9">
-        <f>SUM(L17:R17)</f>
+        <f t="shared" si="2"/>
         <v>42317</v>
       </c>
       <c r="AG17" s="9">
-        <f>SUM(W17:AC17)</f>
+        <f t="shared" si="3"/>
         <v>34181</v>
       </c>
       <c r="AH17" s="15">
-        <f>$E17-AD17</f>
+        <f t="shared" si="4"/>
         <v>73777</v>
       </c>
       <c r="AI17" s="15">
-        <f>$E17-AE17</f>
+        <f t="shared" si="5"/>
         <v>80919</v>
       </c>
       <c r="AJ17" s="15">
-        <f>$E17-AF17</f>
+        <f t="shared" si="6"/>
         <v>75908</v>
       </c>
       <c r="AK17" s="15">
-        <f>$E17-AG17</f>
+        <f t="shared" si="7"/>
         <v>84044</v>
       </c>
       <c r="AL17" s="9">
@@ -7759,19 +7772,19 @@
         <v>181.7</v>
       </c>
       <c r="AV17" s="6">
-        <f>AH17/$AU17*100</f>
+        <f t="shared" si="8"/>
         <v>40603.742432581181</v>
       </c>
       <c r="AW17" s="6">
-        <f>AI17/$AU17*100</f>
+        <f t="shared" si="9"/>
         <v>44534.397358282891</v>
       </c>
       <c r="AX17" s="6">
-        <f>AJ17/$AU17*100</f>
+        <f t="shared" si="10"/>
         <v>41776.554760594387</v>
       </c>
       <c r="AY17" s="6">
-        <f>AK17/$AU17*100</f>
+        <f t="shared" si="11"/>
         <v>46254.265272427081</v>
       </c>
       <c r="AZ17" s="2">
@@ -7808,35 +7821,35 @@
         <v>80.599999999999994</v>
       </c>
       <c r="BK17" s="4">
-        <f>AV17/(2087+$BJ17/60*262.5)*2087</f>
+        <f t="shared" si="12"/>
         <v>34734.850830269788</v>
       </c>
       <c r="BL17" s="4">
-        <f>AW17/(2087+$BJ17/60*262.5)*2087</f>
+        <f t="shared" si="13"/>
         <v>38097.366311107813</v>
       </c>
       <c r="BM17" s="4">
-        <f>AX17/(2087+$BJ17/60*262.5)*2087</f>
+        <f t="shared" si="14"/>
         <v>35738.144094014649</v>
       </c>
       <c r="BN17" s="4">
-        <f>AY17/(2087+$BJ17/60*262.5)*2087</f>
+        <f t="shared" si="15"/>
         <v>39568.643387223572</v>
       </c>
       <c r="BO17" s="13">
-        <f>BK17-$BG17*12</f>
+        <f t="shared" si="16"/>
         <v>4242.8508302697883</v>
       </c>
       <c r="BP17" s="13">
-        <f>BL17-$BG17*12</f>
+        <f t="shared" si="17"/>
         <v>7605.3663111078131</v>
       </c>
       <c r="BQ17" s="13">
-        <f>BM17-$BG17*12</f>
+        <f t="shared" si="18"/>
         <v>5246.1440940146495</v>
       </c>
       <c r="BR17" s="13">
-        <f>BN17-$BG17*12</f>
+        <f t="shared" si="19"/>
         <v>9076.6433872235721</v>
       </c>
       <c r="BS17" s="2">
@@ -7972,35 +7985,35 @@
         <v>2013</v>
       </c>
       <c r="AD18" s="9">
-        <f>SUM(H18:N18)</f>
+        <f t="shared" si="0"/>
         <v>34390</v>
       </c>
       <c r="AE18" s="9">
-        <f>SUM(S18:Y18)</f>
+        <f t="shared" si="1"/>
         <v>28287</v>
       </c>
       <c r="AF18" s="9">
-        <f>SUM(L18:R18)</f>
+        <f t="shared" si="2"/>
         <v>31775</v>
       </c>
       <c r="AG18" s="9">
-        <f>SUM(W18:AC18)</f>
+        <f t="shared" si="3"/>
         <v>26301</v>
       </c>
       <c r="AH18" s="15">
-        <f>$E18-AD18</f>
+        <f t="shared" si="4"/>
         <v>62470</v>
       </c>
       <c r="AI18" s="15">
-        <f>$E18-AE18</f>
+        <f t="shared" si="5"/>
         <v>68573</v>
       </c>
       <c r="AJ18" s="15">
-        <f>$E18-AF18</f>
+        <f t="shared" si="6"/>
         <v>65085</v>
       </c>
       <c r="AK18" s="15">
-        <f>$E18-AG18</f>
+        <f t="shared" si="7"/>
         <v>70559</v>
       </c>
       <c r="AL18" s="9">
@@ -8034,19 +8047,19 @@
         <v>93.8</v>
       </c>
       <c r="AV18" s="6">
-        <f>AH18/$AU18*100</f>
+        <f t="shared" si="8"/>
         <v>66599.147121535178</v>
       </c>
       <c r="AW18" s="6">
-        <f>AI18/$AU18*100</f>
+        <f t="shared" si="9"/>
         <v>73105.543710021317</v>
       </c>
       <c r="AX18" s="6">
-        <f>AJ18/$AU18*100</f>
+        <f t="shared" si="10"/>
         <v>69386.993603411524</v>
       </c>
       <c r="AY18" s="6">
-        <f>AK18/$AU18*100</f>
+        <f t="shared" si="11"/>
         <v>75222.814498933905</v>
       </c>
       <c r="AZ18" s="2">
@@ -8083,35 +8096,35 @@
         <v>45.2</v>
       </c>
       <c r="BK18" s="4">
-        <f>AV18/(2087+$BJ18/60*262.5)*2087</f>
+        <f t="shared" si="12"/>
         <v>60834.848470355144</v>
       </c>
       <c r="BL18" s="4">
-        <f>AW18/(2087+$BJ18/60*262.5)*2087</f>
+        <f t="shared" si="13"/>
         <v>66778.102515730163</v>
       </c>
       <c r="BM18" s="4">
-        <f>AX18/(2087+$BJ18/60*262.5)*2087</f>
+        <f t="shared" si="14"/>
         <v>63381.400875509287</v>
       </c>
       <c r="BN18" s="4">
-        <f>AY18/(2087+$BJ18/60*262.5)*2087</f>
+        <f t="shared" si="15"/>
         <v>68712.118988631162</v>
       </c>
       <c r="BO18" s="13">
-        <f>BK18-$BG18*12</f>
+        <f t="shared" si="16"/>
         <v>45966.848470355144</v>
       </c>
       <c r="BP18" s="13">
-        <f>BL18-$BG18*12</f>
+        <f t="shared" si="17"/>
         <v>51910.102515730163</v>
       </c>
       <c r="BQ18" s="13">
-        <f>BM18-$BG18*12</f>
+        <f t="shared" si="18"/>
         <v>48513.400875509287</v>
       </c>
       <c r="BR18" s="13">
-        <f>BN18-$BG18*12</f>
+        <f t="shared" si="19"/>
         <v>53844.118988631162</v>
       </c>
       <c r="BS18" s="2">
@@ -8154,7 +8167,7 @@
       <c r="CG18" t="s">
         <v>350</v>
       </c>
-      <c r="CH18" t="s">
+      <c r="CH18" s="24" t="s">
         <v>347</v>
       </c>
     </row>
@@ -8247,35 +8260,35 @@
         <v>0</v>
       </c>
       <c r="AD19" s="9">
-        <f>SUM(H19:N19)</f>
+        <f t="shared" si="0"/>
         <v>42775</v>
       </c>
       <c r="AE19" s="9">
-        <f>SUM(S19:Y19)</f>
+        <f t="shared" si="1"/>
         <v>36124</v>
       </c>
       <c r="AF19" s="9">
-        <f>SUM(L19:R19)</f>
+        <f t="shared" si="2"/>
         <v>40338</v>
       </c>
       <c r="AG19" s="9">
-        <f>SUM(W19:AC19)</f>
+        <f t="shared" si="3"/>
         <v>32985</v>
       </c>
       <c r="AH19" s="15">
-        <f>$E19-AD19</f>
+        <f t="shared" si="4"/>
         <v>76979</v>
       </c>
       <c r="AI19" s="15">
-        <f>$E19-AE19</f>
+        <f t="shared" si="5"/>
         <v>83630</v>
       </c>
       <c r="AJ19" s="15">
-        <f>$E19-AF19</f>
+        <f t="shared" si="6"/>
         <v>79416</v>
       </c>
       <c r="AK19" s="15">
-        <f>$E19-AG19</f>
+        <f t="shared" si="7"/>
         <v>86769</v>
       </c>
       <c r="AL19" s="9">
@@ -8309,19 +8322,19 @@
         <v>111.3</v>
       </c>
       <c r="AV19" s="6">
-        <f>AH19/$AU19*100</f>
+        <f t="shared" si="8"/>
         <v>69163.522012578615</v>
       </c>
       <c r="AW19" s="6">
-        <f>AI19/$AU19*100</f>
+        <f t="shared" si="9"/>
         <v>75139.263252470802</v>
       </c>
       <c r="AX19" s="6">
-        <f>AJ19/$AU19*100</f>
+        <f t="shared" si="10"/>
         <v>71353.099730458227</v>
       </c>
       <c r="AY19" s="6">
-        <f>AK19/$AU19*100</f>
+        <f t="shared" si="11"/>
         <v>77959.568733153646</v>
       </c>
       <c r="AZ19" s="2">
@@ -8358,35 +8371,35 @@
         <v>51.2</v>
       </c>
       <c r="BK19" s="4">
-        <f>AV19/(2087+$BJ19/60*262.5)*2087</f>
+        <f t="shared" si="12"/>
         <v>62459.658347144767</v>
       </c>
       <c r="BL19" s="4">
-        <f>AW19/(2087+$BJ19/60*262.5)*2087</f>
+        <f t="shared" si="13"/>
         <v>67856.184512291889</v>
       </c>
       <c r="BM19" s="4">
-        <f>AX19/(2087+$BJ19/60*262.5)*2087</f>
+        <f t="shared" si="14"/>
         <v>64437.005252040814</v>
       </c>
       <c r="BN19" s="4">
-        <f>AY19/(2087+$BJ19/60*262.5)*2087</f>
+        <f t="shared" si="15"/>
         <v>70403.124165336078</v>
       </c>
       <c r="BO19" s="13">
-        <f>BK19-$BG19*12</f>
+        <f t="shared" si="16"/>
         <v>41015.658347144767</v>
       </c>
       <c r="BP19" s="13">
-        <f>BL19-$BG19*12</f>
+        <f t="shared" si="17"/>
         <v>46412.184512291889</v>
       </c>
       <c r="BQ19" s="13">
-        <f>BM19-$BG19*12</f>
+        <f t="shared" si="18"/>
         <v>42993.005252040814</v>
       </c>
       <c r="BR19" s="13">
-        <f>BN19-$BG19*12</f>
+        <f t="shared" si="19"/>
         <v>48959.124165336078</v>
       </c>
       <c r="BS19" s="2">
@@ -8522,35 +8535,35 @@
         <v>909</v>
       </c>
       <c r="AD20" s="9">
-        <f>SUM(H20:N20)</f>
+        <f t="shared" si="0"/>
         <v>33917</v>
       </c>
       <c r="AE20" s="9">
-        <f>SUM(S20:Y20)</f>
+        <f t="shared" si="1"/>
         <v>28037</v>
       </c>
       <c r="AF20" s="9">
-        <f>SUM(L20:R20)</f>
+        <f t="shared" si="2"/>
         <v>31351</v>
       </c>
       <c r="AG20" s="9">
-        <f>SUM(W20:AC20)</f>
+        <f t="shared" si="3"/>
         <v>26101</v>
       </c>
       <c r="AH20" s="15">
-        <f>$E20-AD20</f>
+        <f t="shared" si="4"/>
         <v>61983</v>
       </c>
       <c r="AI20" s="15">
-        <f>$E20-AE20</f>
+        <f t="shared" si="5"/>
         <v>67863</v>
       </c>
       <c r="AJ20" s="15">
-        <f>$E20-AF20</f>
+        <f t="shared" si="6"/>
         <v>64549</v>
       </c>
       <c r="AK20" s="15">
-        <f>$E20-AG20</f>
+        <f t="shared" si="7"/>
         <v>69799</v>
       </c>
       <c r="AL20" s="9">
@@ -8584,19 +8597,19 @@
         <v>91.5</v>
       </c>
       <c r="AV20" s="6">
-        <f>AH20/$AU20*100</f>
+        <f t="shared" si="8"/>
         <v>67740.983606557376</v>
       </c>
       <c r="AW20" s="6">
-        <f>AI20/$AU20*100</f>
+        <f t="shared" si="9"/>
         <v>74167.213114754093</v>
       </c>
       <c r="AX20" s="6">
-        <f>AJ20/$AU20*100</f>
+        <f t="shared" si="10"/>
         <v>70545.355191256822</v>
       </c>
       <c r="AY20" s="6">
-        <f>AK20/$AU20*100</f>
+        <f t="shared" si="11"/>
         <v>76283.06010928961</v>
       </c>
       <c r="AZ20" s="2">
@@ -8633,35 +8646,35 @@
         <v>47</v>
       </c>
       <c r="BK20" s="4">
-        <f>AV20/(2087+$BJ20/60*262.5)*2087</f>
+        <f t="shared" si="12"/>
         <v>61665.310631649423</v>
       </c>
       <c r="BL20" s="4">
-        <f>AW20/(2087+$BJ20/60*262.5)*2087</f>
+        <f t="shared" si="13"/>
         <v>67515.173118365099</v>
       </c>
       <c r="BM20" s="4">
-        <f>AX20/(2087+$BJ20/60*262.5)*2087</f>
+        <f t="shared" si="14"/>
         <v>64218.158784865809</v>
       </c>
       <c r="BN20" s="4">
-        <f>AY20/(2087+$BJ20/60*262.5)*2087</f>
+        <f t="shared" si="15"/>
         <v>69441.250290861964</v>
       </c>
       <c r="BO20" s="13">
-        <f>BK20-$BG20*12</f>
+        <f t="shared" si="16"/>
         <v>48549.310631649423</v>
       </c>
       <c r="BP20" s="13">
-        <f>BL20-$BG20*12</f>
+        <f t="shared" si="17"/>
         <v>54399.173118365099</v>
       </c>
       <c r="BQ20" s="13">
-        <f>BM20-$BG20*12</f>
+        <f t="shared" si="18"/>
         <v>51102.158784865809</v>
       </c>
       <c r="BR20" s="13">
-        <f>BN20-$BG20*12</f>
+        <f t="shared" si="19"/>
         <v>56325.250290861964</v>
       </c>
       <c r="BS20" s="2">
@@ -8791,35 +8804,35 @@
         <v>0</v>
       </c>
       <c r="AD21" s="9">
-        <f>SUM(H21:N21)</f>
+        <f t="shared" si="0"/>
         <v>32561</v>
       </c>
       <c r="AE21" s="9">
-        <f>SUM(S21:Y21)</f>
+        <f t="shared" si="1"/>
         <v>26065</v>
       </c>
       <c r="AF21" s="9">
-        <f>SUM(L21:R21)</f>
+        <f t="shared" si="2"/>
         <v>29849</v>
       </c>
       <c r="AG21" s="9">
-        <f>SUM(W21:AC21)</f>
+        <f t="shared" si="3"/>
         <v>23746</v>
       </c>
       <c r="AH21" s="15">
-        <f>$E21-AD21</f>
+        <f t="shared" si="4"/>
         <v>70752</v>
       </c>
       <c r="AI21" s="15">
-        <f>$E21-AE21</f>
+        <f t="shared" si="5"/>
         <v>77248</v>
       </c>
       <c r="AJ21" s="15">
-        <f>$E21-AF21</f>
+        <f t="shared" si="6"/>
         <v>73464</v>
       </c>
       <c r="AK21" s="15">
-        <f>$E21-AG21</f>
+        <f t="shared" si="7"/>
         <v>79567</v>
       </c>
       <c r="AL21" s="9">
@@ -8853,19 +8866,19 @@
         <v>95.5</v>
       </c>
       <c r="AV21" s="6">
-        <f>AH21/$AU21*100</f>
+        <f t="shared" si="8"/>
         <v>74085.863874345552</v>
       </c>
       <c r="AW21" s="6">
-        <f>AI21/$AU21*100</f>
+        <f t="shared" si="9"/>
         <v>80887.958115183239</v>
       </c>
       <c r="AX21" s="6">
-        <f>AJ21/$AU21*100</f>
+        <f t="shared" si="10"/>
         <v>76925.654450261776</v>
       </c>
       <c r="AY21" s="6">
-        <f>AK21/$AU21*100</f>
+        <f t="shared" si="11"/>
         <v>83316.230366492135</v>
       </c>
       <c r="AZ21" s="2">
@@ -8902,35 +8915,35 @@
         <v>47.6</v>
       </c>
       <c r="BK21" s="4">
-        <f>AV21/(2087+$BJ21/60*262.5)*2087</f>
+        <f t="shared" si="12"/>
         <v>67363.989938246013</v>
       </c>
       <c r="BL21" s="4">
-        <f>AW21/(2087+$BJ21/60*262.5)*2087</f>
+        <f t="shared" si="13"/>
         <v>73548.924337822653</v>
       </c>
       <c r="BM21" s="4">
-        <f>AX21/(2087+$BJ21/60*262.5)*2087</f>
+        <f t="shared" si="14"/>
         <v>69946.123880926403</v>
       </c>
       <c r="BN21" s="4">
-        <f>AY21/(2087+$BJ21/60*262.5)*2087</f>
+        <f t="shared" si="15"/>
         <v>75756.87736624293</v>
       </c>
       <c r="BO21" s="13">
-        <f>BK21-$BG21*12</f>
+        <f t="shared" si="16"/>
         <v>46183.989938246013</v>
       </c>
       <c r="BP21" s="13">
-        <f>BL21-$BG21*12</f>
+        <f t="shared" si="17"/>
         <v>52368.924337822653</v>
       </c>
       <c r="BQ21" s="13">
-        <f>BM21-$BG21*12</f>
+        <f t="shared" si="18"/>
         <v>48766.123880926403</v>
       </c>
       <c r="BR21" s="13">
-        <f>BN21-$BG21*12</f>
+        <f t="shared" si="19"/>
         <v>54576.87736624293</v>
       </c>
       <c r="BS21" s="2">
@@ -9060,35 +9073,35 @@
         <v>0</v>
       </c>
       <c r="AD22" s="9">
-        <f>SUM(H22:N22)</f>
+        <f t="shared" si="0"/>
         <v>32534</v>
       </c>
       <c r="AE22" s="9">
-        <f>SUM(S22:Y22)</f>
+        <f t="shared" si="1"/>
         <v>26028</v>
       </c>
       <c r="AF22" s="9">
-        <f>SUM(L22:R22)</f>
+        <f t="shared" si="2"/>
         <v>29836</v>
       </c>
       <c r="AG22" s="9">
-        <f>SUM(W22:AC22)</f>
+        <f t="shared" si="3"/>
         <v>23898</v>
       </c>
       <c r="AH22" s="15">
-        <f>$E22-AD22</f>
+        <f t="shared" si="4"/>
         <v>69319</v>
       </c>
       <c r="AI22" s="15">
-        <f>$E22-AE22</f>
+        <f t="shared" si="5"/>
         <v>75825</v>
       </c>
       <c r="AJ22" s="15">
-        <f>$E22-AF22</f>
+        <f t="shared" si="6"/>
         <v>72017</v>
       </c>
       <c r="AK22" s="15">
-        <f>$E22-AG22</f>
+        <f t="shared" si="7"/>
         <v>77955</v>
       </c>
       <c r="AL22" s="9">
@@ -9122,19 +9135,19 @@
         <v>91.9</v>
       </c>
       <c r="AV22" s="6">
-        <f>AH22/$AU22*100</f>
+        <f t="shared" si="8"/>
         <v>75428.726877040259</v>
       </c>
       <c r="AW22" s="6">
-        <f>AI22/$AU22*100</f>
+        <f t="shared" si="9"/>
         <v>82508.161044613706</v>
       </c>
       <c r="AX22" s="6">
-        <f>AJ22/$AU22*100</f>
+        <f t="shared" si="10"/>
         <v>78364.526659412397</v>
       </c>
       <c r="AY22" s="6">
-        <f>AK22/$AU22*100</f>
+        <f t="shared" si="11"/>
         <v>84825.897714907507</v>
       </c>
       <c r="AZ22" s="2">
@@ -9171,35 +9184,35 @@
         <v>52.6</v>
       </c>
       <c r="BK22" s="4">
-        <f>AV22/(2087+$BJ22/60*262.5)*2087</f>
+        <f t="shared" si="12"/>
         <v>67937.531636136599</v>
       </c>
       <c r="BL22" s="4">
-        <f>AW22/(2087+$BJ22/60*262.5)*2087</f>
+        <f t="shared" si="13"/>
         <v>74313.87262236989</v>
       </c>
       <c r="BM22" s="4">
-        <f>AX22/(2087+$BJ22/60*262.5)*2087</f>
+        <f t="shared" si="14"/>
         <v>70581.762804420854</v>
       </c>
       <c r="BN22" s="4">
-        <f>AY22/(2087+$BJ22/60*262.5)*2087</f>
+        <f t="shared" si="15"/>
         <v>76401.423544699559</v>
       </c>
       <c r="BO22" s="13">
-        <f>BK22-$BG22*12</f>
+        <f t="shared" si="16"/>
         <v>50057.531636136599</v>
       </c>
       <c r="BP22" s="13">
-        <f>BL22-$BG22*12</f>
+        <f t="shared" si="17"/>
         <v>56433.87262236989</v>
       </c>
       <c r="BQ22" s="13">
-        <f>BM22-$BG22*12</f>
+        <f t="shared" si="18"/>
         <v>52701.762804420854</v>
       </c>
       <c r="BR22" s="13">
-        <f>BN22-$BG22*12</f>
+        <f t="shared" si="19"/>
         <v>58521.423544699559</v>
       </c>
       <c r="BS22" s="2">
@@ -9329,35 +9342,35 @@
         <v>0</v>
       </c>
       <c r="AD23" s="9">
-        <f>SUM(H23:N23)</f>
+        <f t="shared" si="0"/>
         <v>40923</v>
       </c>
       <c r="AE23" s="9">
-        <f>SUM(S23:Y23)</f>
+        <f t="shared" si="1"/>
         <v>33832</v>
       </c>
       <c r="AF23" s="9">
-        <f>SUM(L23:R23)</f>
+        <f t="shared" si="2"/>
         <v>37292</v>
       </c>
       <c r="AG23" s="9">
-        <f>SUM(W23:AC23)</f>
+        <f t="shared" si="3"/>
         <v>30444</v>
       </c>
       <c r="AH23" s="15">
-        <f>$E23-AD23</f>
+        <f t="shared" si="4"/>
         <v>90189</v>
       </c>
       <c r="AI23" s="15">
-        <f>$E23-AE23</f>
+        <f t="shared" si="5"/>
         <v>97280</v>
       </c>
       <c r="AJ23" s="15">
-        <f>$E23-AF23</f>
+        <f t="shared" si="6"/>
         <v>93820</v>
       </c>
       <c r="AK23" s="15">
-        <f>$E23-AG23</f>
+        <f t="shared" si="7"/>
         <v>100668</v>
       </c>
       <c r="AL23" s="9">
@@ -9391,19 +9404,19 @@
         <v>121.4</v>
       </c>
       <c r="AV23" s="6">
-        <f>AH23/$AU23*100</f>
+        <f t="shared" si="8"/>
         <v>74290.774299835248</v>
       </c>
       <c r="AW23" s="6">
-        <f>AI23/$AU23*100</f>
+        <f t="shared" si="9"/>
         <v>80131.795716639201</v>
       </c>
       <c r="AX23" s="6">
-        <f>AJ23/$AU23*100</f>
+        <f t="shared" si="10"/>
         <v>77281.713344316304</v>
       </c>
       <c r="AY23" s="6">
-        <f>AK23/$AU23*100</f>
+        <f t="shared" si="11"/>
         <v>82922.570016474463</v>
       </c>
       <c r="AZ23" s="2">
@@ -9440,35 +9453,35 @@
         <v>53.8</v>
       </c>
       <c r="BK23" s="4">
-        <f>AV23/(2087+$BJ23/60*262.5)*2087</f>
+        <f t="shared" si="12"/>
         <v>66761.330949461713</v>
       </c>
       <c r="BL23" s="4">
-        <f>AW23/(2087+$BJ23/60*262.5)*2087</f>
+        <f t="shared" si="13"/>
         <v>72010.359076646098</v>
       </c>
       <c r="BM23" s="4">
-        <f>AX23/(2087+$BJ23/60*262.5)*2087</f>
+        <f t="shared" si="14"/>
         <v>69449.135367711133</v>
       </c>
       <c r="BN23" s="4">
-        <f>AY23/(2087+$BJ23/60*262.5)*2087</f>
+        <f t="shared" si="15"/>
         <v>74518.285644817137</v>
       </c>
       <c r="BO23" s="13">
-        <f>BK23-$BG23*12</f>
+        <f t="shared" si="16"/>
         <v>38981.330949461713</v>
       </c>
       <c r="BP23" s="13">
-        <f>BL23-$BG23*12</f>
+        <f t="shared" si="17"/>
         <v>44230.359076646098</v>
       </c>
       <c r="BQ23" s="13">
-        <f>BM23-$BG23*12</f>
+        <f t="shared" si="18"/>
         <v>41669.135367711133</v>
       </c>
       <c r="BR23" s="13">
-        <f>BN23-$BG23*12</f>
+        <f t="shared" si="19"/>
         <v>46738.285644817137</v>
       </c>
       <c r="BS23" s="2">
@@ -10307,8 +10320,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="CH18" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -15569,10 +15585,10 @@
   <dimension ref="A1:BG22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="AM3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="A1:BG22"/>
+      <selection pane="bottomRight" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19507,7 +19523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
